--- a/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
+++ b/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\021-Repositorios\ThermoSafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\021-Repositorios\ThermoSafe\Docto-Paulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="236">
   <si>
     <t>Opção A — com Docker (recomendado: 1 comando e tudo sobe)</t>
   </si>
@@ -1636,13 +1636,34 @@
   </si>
   <si>
     <t xml:space="preserve"> ✔ Container mysql_thermosafe       Started</t>
+  </si>
+  <si>
+    <t>docker compose down</t>
+  </si>
+  <si>
+    <t>docker compose build --no-cache</t>
+  </si>
+  <si>
+    <t>docker os</t>
+  </si>
+  <si>
+    <t>http://localhost:8080</t>
+  </si>
+  <si>
+    <t>fazer teste do index.html</t>
+  </si>
+  <si>
+    <t>http://localhost:8081</t>
+  </si>
+  <si>
+    <t>acessar phpMyAdmin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,8 +1729,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,6 +1747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1783,6 +1817,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2113,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D438"/>
+  <dimension ref="B1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B144" sqref="B133:B144"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3406,34 +3443,72 @@
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:3">
       <c r="B433" s="5"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:3">
       <c r="B434" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:3">
       <c r="B435" s="5"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:3">
       <c r="B436" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:3">
       <c r="B438" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="B442" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C448" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C449" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B421" r:id="rId1" display="http://localhost:8080/"/>
     <hyperlink ref="B423" r:id="rId2" display="http://localhost:8081/"/>
+    <hyperlink ref="B449" r:id="rId3"/>
+    <hyperlink ref="B448" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
+++ b/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tracker-local-locaweb" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="234">
   <si>
     <t>Opção A — com Docker (recomendado: 1 comando e tudo sobe)</t>
   </si>
@@ -1650,13 +1651,7 @@
     <t>http://localhost:8080</t>
   </si>
   <si>
-    <t>fazer teste do index.html</t>
-  </si>
-  <si>
     <t>http://localhost:8081</t>
-  </si>
-  <si>
-    <t>acessar phpMyAdmin</t>
   </si>
 </sst>
 </file>
@@ -1770,56 +1765,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1845,13 +1858,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>45898</xdr:rowOff>
+      <xdr:rowOff>45899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>71971</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4781176</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1874,8 +1887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="16105048"/>
-          <a:ext cx="6076950" cy="3836073"/>
+          <a:off x="695325" y="19572149"/>
+          <a:ext cx="4695451" cy="2964002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,290 +2163,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D449"/>
+  <dimension ref="B1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B449" sqref="B449"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A124" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="73" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="31.5">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:2" ht="94.5">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="23.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="23.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="2:2" ht="45">
+      <c r="B52" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2" ht="23.25">
       <c r="B60" s="9" t="s">
@@ -2485,12 +2498,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" ht="30">
       <c r="B70" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" ht="30">
       <c r="B71" s="12" t="s">
         <v>175</v>
       </c>
@@ -2510,13 +2523,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="13" t="s">
+    <row r="75" spans="2:2" ht="30">
+      <c r="B75" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2531,7 +2544,7 @@
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2541,17 +2554,17 @@
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="11" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2565,950 +2578,1958 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" ht="30">
       <c r="B86" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" ht="30">
       <c r="B87" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="18">
-      <c r="B111" s="16" t="s">
+    <row r="107" spans="2:2" ht="18">
+      <c r="B107" s="15" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="108" spans="2:2" ht="30">
+      <c r="B108" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="18">
+      <c r="B110" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="5" t="s">
-        <v>200</v>
+      <c r="B112" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="18">
-      <c r="B114" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+      <c r="B113" s="14" t="s">
         <v>205</v>
       </c>
     </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="18">
+      <c r="B117" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="18">
-      <c r="B121" s="16" t="s">
-        <v>206</v>
+      <c r="B118" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="18">
+      <c r="B120" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="5" t="s">
-        <v>207</v>
+      <c r="B122" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="18">
-      <c r="B124" s="16" t="s">
-        <v>209</v>
+      <c r="B123" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="4" t="s">
-        <v>211</v>
+      <c r="B125" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
-        <v>213</v>
+      <c r="B127" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="45">
+      <c r="B130" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="45">
+      <c r="B135" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="30">
+      <c r="B137" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="30">
+      <c r="B138" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="30">
+      <c r="B139" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="23.25">
+      <c r="B141" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="23.25">
+      <c r="B148" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="23.25">
+      <c r="B165" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="25.5">
+      <c r="B195" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="25.5">
+      <c r="B196" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="23.25">
+      <c r="B214" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="2:2" ht="25.5">
+      <c r="B230" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" ht="25.5">
+      <c r="B231" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="25.5">
+      <c r="B232" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="23.25">
+      <c r="B255" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="23.25">
+      <c r="B287" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="16"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="16"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" ht="23.25">
-      <c r="B145" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" ht="23.25">
-      <c r="B152" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="B157" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="B158" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4">
-      <c r="B159" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D159" s="5"/>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:4">
-      <c r="B161" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="B162" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="2:4">
-      <c r="B163" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="B164" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="B165" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4">
-      <c r="B166" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" ht="23.25">
-      <c r="B198" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
-      <c r="B220" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" ht="23.25">
-      <c r="B279" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="1"/>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="1"/>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="294" spans="2:2">
-      <c r="B294" s="1"/>
+      <c r="B294" s="16"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="4" t="s">
-        <v>106</v>
+      <c r="B295" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="2:2">
-      <c r="B296" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="B296" s="16"/>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="1"/>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="2:2">
+      <c r="B297" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="45">
+      <c r="B299" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" ht="23.25">
       <c r="B301" s="4" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="302" spans="2:2">
-      <c r="B302" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="B302" s="16"/>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="4" t="s">
-        <v>112</v>
+      <c r="B303" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="304" spans="2:2">
-      <c r="B304" s="1"/>
+      <c r="B304" s="16"/>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="4" t="s">
-        <v>113</v>
+      <c r="B305" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="B306" s="16"/>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="4" t="s">
-        <v>79</v>
+      <c r="B307" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="30">
+      <c r="B309" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="4" t="s">
-        <v>118</v>
+      <c r="B311" s="20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="1"/>
+      <c r="B312" s="20" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" s="4" t="s">
-        <v>119</v>
+      <c r="B313" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="314" spans="2:2">
-      <c r="B314" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="4" t="s">
-        <v>121</v>
+      <c r="B314" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="4" t="s">
-        <v>122</v>
+      <c r="B316" s="21" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" ht="23.25">
-      <c r="B353" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2">
-      <c r="B373" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2">
-      <c r="B382" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" ht="23.25">
-      <c r="B413" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2">
-      <c r="B414" s="5"/>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2">
-      <c r="B416" s="5"/>
-    </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2">
-      <c r="B420" s="5"/>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="5"/>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="430" spans="2:2" ht="23.25">
-      <c r="B430" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2">
-      <c r="B431" s="5"/>
-    </row>
-    <row r="432" spans="2:2">
-      <c r="B432" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="433" spans="2:3">
-      <c r="B433" s="5"/>
-    </row>
-    <row r="434" spans="2:3">
-      <c r="B434" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="435" spans="2:3">
-      <c r="B435" s="5"/>
-    </row>
-    <row r="436" spans="2:3">
-      <c r="B436" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="438" spans="2:3">
-      <c r="B438" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="442" spans="2:3">
-      <c r="B442" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="443" spans="2:3">
-      <c r="B443" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="444" spans="2:3">
-      <c r="B444" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="445" spans="2:3">
-      <c r="B445" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="448" spans="2:3">
-      <c r="B448" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C448" t="s">
+      <c r="B317" s="22" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="449" spans="2:3">
-      <c r="B449" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C449" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B421" r:id="rId1" display="http://localhost:8080/"/>
-    <hyperlink ref="B423" r:id="rId2" display="http://localhost:8081/"/>
-    <hyperlink ref="B449" r:id="rId3"/>
-    <hyperlink ref="B448" r:id="rId4"/>
+    <hyperlink ref="B295" r:id="rId1" display="http://localhost:8080/"/>
+    <hyperlink ref="B297" r:id="rId2" display="http://localhost:8081/"/>
+    <hyperlink ref="B317" r:id="rId3"/>
+    <hyperlink ref="B316" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="73" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="94.5">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="23.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="23.25">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="23.25">
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="23.25">
+      <c r="B57" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="23.25">
+      <c r="B74" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="25.5">
+      <c r="B104" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="25.5">
+      <c r="B105" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="23.25">
+      <c r="B123" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2" ht="25.5">
+      <c r="B139" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="25.5">
+      <c r="B140" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="25.5">
+      <c r="B141" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="23.25">
+      <c r="B164" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="23.25">
+      <c r="B196" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="16"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="16"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="16"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="16"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="45">
+      <c r="B208" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="23.25">
+      <c r="B210" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="16"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="16"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="30">
+      <c r="B218" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B204" r:id="rId1" display="http://localhost:8080/"/>
+    <hyperlink ref="B206" r:id="rId2" display="http://localhost:8081/"/>
+    <hyperlink ref="B226" r:id="rId3"/>
+    <hyperlink ref="B225" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
+++ b/Docto-Paulo/Suporte-ThermoSafeSite.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tracker-local-locaweb" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Ligar no meu Desktop" sheetId="3" r:id="rId3"/>
+    <sheet name="Migrar desktop para Locaweb" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="397">
   <si>
     <t>Opção A — com Docker (recomendado: 1 comando e tudo sobe)</t>
   </si>
@@ -1652,13 +1654,2134 @@
   </si>
   <si>
     <t>http://localhost:8081</t>
+  </si>
+  <si>
+    <t>1) Ligue o Docker Desktop (Engine Linux)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Abra o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (menu Iniciar).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Espere aparecer no rodapé </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Engine running”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se aparecer “starting…” e não sai disso: clique em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Settings → General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e confirme que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use the WSL 2 based engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está marcado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Depois </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply &amp; Restart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Teste rápido no PowerShell:</t>
+  </si>
+  <si>
+    <t>docker info</t>
+  </si>
+  <si>
+    <t>Se listar infos do daemon, o engine está OK. Se der erro parecido com o da pipe, o engine ainda não subiu.</t>
+  </si>
+  <si>
+    <t>veja no canto inferior esquerdo, estará verde!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PowerShell (Admin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e rode:</t>
+    </r>
+  </si>
+  <si>
+    <t>wsl --status</t>
+  </si>
+  <si>
+    <t>wsl --update</t>
+  </si>
+  <si>
+    <t>wsl --shutdown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Depois, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feche e reabra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o Docker Desktop.</t>
+    </r>
+  </si>
+  <si>
+    <t>(Esse combo atualiza o kernel do WSL2 e derruba instâncias travadas.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dica: em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker Desktop → Settings → Resources → WSL Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, deixe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable integration with my default WSL distro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> marcado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) Se o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Engine não subir</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, faça um “destrava” do WSL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PowerShell (Admin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>net stop com.docker.service</t>
+  </si>
+  <si>
+    <t>net start com.docker.service</t>
+  </si>
+  <si>
+    <t>Depois abra novamente o Docker Desktop e aguarde “Engine running”.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Opcional)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Reiniciar o serviço do Docker</t>
+    </r>
+  </si>
+  <si>
+    <t>4) Volte para sua pasta do projeto e suba os containers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No PowerShell, na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raiz do ThermoSafe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (onde está o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>docker-compose.yml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>cd C:\021-Repositorios\ThermoSafe</t>
+  </si>
+  <si>
+    <t>docker compose pull</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>Você deve ver algo como:</t>
+  </si>
+  <si>
+    <t>web_thermosafe        ...   0.0.0.0:8080-&gt;80/tcp</t>
+  </si>
+  <si>
+    <t>mysql_thermosafe      ...   0.0.0.0:3306-&gt;3306/tcp</t>
+  </si>
+  <si>
+    <t>phpmyadmin_thermosafe ...   0.0.0.0:8081-&gt;80/tcp</t>
+  </si>
+  <si>
+    <t>deu certo!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Site: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://localhost:8080/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tracker admin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://localhost:8080/analytics/admin/login.php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">phpMyAdmin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://localhost:8081/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se você clicar no logo e o navegador abrir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:/analytics/admin/login.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, isso está errado. Ajuste o link do logo para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rota web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;a href="/analytics/admin/login.php" class="ts-logo-link" title="Acesso restrito"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;img class="ts-logo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       src="assets/images/logo/logo-p.png"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       srcset="assets/images/logo/logo-p.png 480w,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               assets/images/logo/logo-m.png 800w,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               assets/images/logo/logo-g.png 1200w"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sizes="(max-width: 600px) 500px, (max-width: 1024px) 560px, 620px"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       alt="ThermoSafe — Confiabilidade em cada número"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>5) Acessos (não use caminho C:\…) - Abrir no Chrome!!!</t>
+  </si>
+  <si>
+    <r>
+      <t>Settings → Troubleshoot → Restart Docker Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Settings → Troubleshoot → Clean / Purge data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (último recurso, apaga imagens/volumes locais).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cheque </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows Features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virtual Machine Platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows Subsystem for Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> precisam estar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ativados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>acessar via browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abrindo a tela de login </t>
+  </si>
+  <si>
+    <t>abrindo o banco de dados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se continuar travando</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Preparar o ambiente na Locaweb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1 Criar site e banco</t>
+    </r>
+  </si>
+  <si>
+    <t>No painel da Locaweb (Hospedagem I):</t>
+  </si>
+  <si>
+    <r>
+      <t>PHP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ative/defina a versão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (igual ou superior à do Docker).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Banco MySQL:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuário</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>senha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Anote:</t>
+  </si>
+  <si>
+    <r>
+      <t>DB_HOST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: geralmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (confirme no painel)</t>
+    </r>
+  </si>
+  <si>
+    <t>DB_NAME</t>
+  </si>
+  <si>
+    <t>DB_USER</t>
+  </si>
+  <si>
+    <t>DB_PASS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2 Acessar phpMyAdmin (Locaweb)</t>
+    </r>
+  </si>
+  <si>
+    <t>Abra o phpMyAdmin da Locaweb a partir do painel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se já quiser dados de teste, importe o dump da sua máquina local; senão, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crie a tabela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do tracker com o SQL abaixo:</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS t_visitas (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip_usuario VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pagina VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  navegador VARCHAR(255),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dispositivo VARCHAR(100),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  data_visita DATETIME DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  origem VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_data_visita ON t_visitas (data_visita);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_pagina     ON t_visitas (pagina);</t>
+  </si>
+  <si>
+    <t>2) Ajustar o projeto para produção</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1 Configurar o tracker para o banco da Locaweb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>analytics/config.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no seu computador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (antes do upload):</t>
+    </r>
+  </si>
+  <si>
+    <t>const DB_HOST = 'localhost';                 // confirme no painel</t>
+  </si>
+  <si>
+    <t>const DB_USER = 'SEU_USUARIO_DB';</t>
+  </si>
+  <si>
+    <t>const DB_PASS = 'SUA_SENHA_DB';</t>
+  </si>
+  <si>
+    <t>const DB_NAME = 'SUA_BASE_DB';</t>
+  </si>
+  <si>
+    <t>function db() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static $c = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if ($c === null) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $c = new mysqli(DB_HOST, DB_USER, DB_PASS, DB_NAME);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if ($c-&gt;connect_error) { http_response_code(500); exit; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $c-&gt;set_charset('utf8mb4');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return $c;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2 Conferir o link do logo para o painel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nos seus HTMLs (ex.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), garanta que o link é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rota web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, não caminho de arquivo:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.3 Conferir o JS do tracker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>trs-track.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, mantenha o endpoint </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>absoluto no site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>fetch('/analytics/track.php', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  method: 'POST',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  headers: { 'Content-Type': 'application/json' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  body: JSON.stringify(payload)</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se preferir, pode usar URL completa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://SEU-DOMINIO.com.br/analytics/track.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.4 (Opcional) .htaccess para HTTPS &amp; cache</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crie/edite um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.htaccess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na raiz do site (pasta pública da Locaweb, ex.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>public_html/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t># Força HTTPS</t>
+  </si>
+  <si>
+    <t>RewriteEngine On</t>
+  </si>
+  <si>
+    <t>RewriteCond %{HTTPS} !=on</t>
+  </si>
+  <si>
+    <t>RewriteRule ^ https://%{HTTP_HOST}%{REQUEST_URI} [L,R=301]</t>
+  </si>
+  <si>
+    <t># Cache simples de assets</t>
+  </si>
+  <si>
+    <t>&lt;IfModule mod_expires.c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresActive On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresByType image/png "access plus 30 days"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresByType image/jpeg "access plus 30 days"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresByType image/svg+xml "access plus 30 days"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresByType text/css "access plus 7 days"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExpiresByType application/javascript "access plus 7 days"</t>
+  </si>
+  <si>
+    <t>&lt;/IfModule&gt;</t>
+  </si>
+  <si>
+    <t>3) Publicar os arquivos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1 Enviar via FTP/SFTP</t>
+    </r>
+  </si>
+  <si>
+    <t>Conecte no FTP/SFTP (credenciais do painel).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Suba </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toda a pasta do site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pasta pública</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (geralmente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>public_html/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>www/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mantenha a estrutura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (inclusive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/analytics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Permissões típicas: pastas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>755</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; arquivos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nomes de arquivos são </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case-sensitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> em alguns ambientes — mantenha as letras exatamente como nos HTMLs.</t>
+    </r>
+  </si>
+  <si>
+    <t>4) Testar em produção</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1 Site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://SEU-DOMINIO/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e navegue entre as páginas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2 Tracker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verifique no phpMyAdmin da Locaweb se a tabela </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>t_visitas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> recebeu registros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://SEU-DOMINIO/analytics/admin/login.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, faça </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e veja se o painel carrega.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se precisar, crio um </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>test.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para validar a conexão MySQL em 2s.</t>
+    </r>
+  </si>
+  <si>
+    <t>5) Plano de contingência / Diagnóstico rápido</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se algo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funcionar, veja estes pontos:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Erro 500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>track.php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ Quase sempre é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>credencial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DB_HOST/DB_USER/DB_PASS/DB_NAME) em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>analytics/config.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste rápido: temporariamente ligue logs no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>config.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (somente para diagnóstico).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabela vazia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mesmo navegando no site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ O JS do tracker está apontando para endpoint errado. Abra o DevTools (F12) → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → procure a requisição para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/analytics/track.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deve retornar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>200 OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{"ok":true,"id":...}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>404 em fontes/CSS/JS</t>
+  </si>
+  <si>
+    <t>→ Caminho incorreto, subpasta diferente, ou arquivo não enviado. Abra o link direto do asset no navegador para confirmar.</t>
+  </si>
+  <si>
+    <t>Login do painel não entra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ Confirme se a tabela de usuários (se tiver) está na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mesma base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e se as senhas foram criadas com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>password_hash()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Posso te mandar um utilitário de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>register-user.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>password_hash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para cadastrar 1º acesso.</t>
+    </r>
+  </si>
+  <si>
+    <t>6) Checklist final (Go-Live)</t>
+  </si>
+  <si>
+    <t>DNS do domínio já aponta para a Locaweb (propagado)</t>
+  </si>
+  <si>
+    <t>PHP 8.x ativo no painel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MySQL criado, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>t_visitas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ok</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>analytics/config.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> com as credenciais de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>produção</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Site e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/analytics/admin/login.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> acessíveis via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t_visitas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> populando ao navegar no site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Opcional) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.htaccess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> com HTTPS + cache</t>
+    </r>
+  </si>
+  <si>
+    <t>Testes de mobile e desktop feitos</t>
+  </si>
+  <si>
+    <t>Entrar no icone: abrir nova hospedagem</t>
+  </si>
+  <si>
+    <t>digite thermosafe.com.br</t>
+  </si>
+  <si>
+    <t>demora por volta de 15 minutos para carregar o sistema</t>
+  </si>
+  <si>
+    <t>lembrando que o sistema operacional é Linux</t>
+  </si>
+  <si>
+    <t>1. Acesse o site do Registro.br e faça login.</t>
+  </si>
+  <si>
+    <t>2. No menu "Domínios", selecione seu domínio.</t>
+  </si>
+  <si>
+    <t>3. Vá em "DNS" e clique em "Configurar endereçamento".</t>
+  </si>
+  <si>
+    <t>4. Clique em "Modo avançado" e adicione duas entradas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Tipo A: Deixe o primeiro campo em branco e insira o IP 186.202.135.240.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Tipo CNAME: No primeiro campo, digite "www" e insira seu domínio (ex: thermosafe.com.br).</t>
+  </si>
+  <si>
+    <t>5. Salve as alterações.</t>
+  </si>
+  <si>
+    <t>Registrado no Registro.BR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,8 +3854,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1751,6 +3890,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1765,7 +3910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1833,6 +3978,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1849,6 +4007,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,6 +4087,430 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>516121</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="8648700"/>
+          <a:ext cx="12689071" cy="3962953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>166</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>167</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>168</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>169</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>170</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>171</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>172</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>173</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>174</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>175</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4101" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>176</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>177</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4102" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>178</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>179</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4103" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>180</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>181</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4104" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3524,7 +6138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -4532,4 +7146,1297 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="96" style="14" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25">
+      <c r="A1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30">
+      <c r="A17" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="23.25">
+      <c r="A20" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:1" ht="30">
+      <c r="A31" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23.25">
+      <c r="A34" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="23.25">
+      <c r="A44" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="23.25">
+      <c r="A59" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="16"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="16"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="16"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="16"/>
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="23.25">
+      <c r="A79" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="16"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="16"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="16"/>
+    </row>
+    <row r="85" spans="1:1" ht="30">
+      <c r="A85" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:C181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="63">
+      <c r="A1" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16"/>
+      <c r="C8" s="27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16"/>
+      <c r="C9" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16"/>
+      <c r="C10" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:1" ht="30">
+      <c r="A30" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="63">
+      <c r="A47" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="25.5">
+      <c r="A61" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="30">
+      <c r="A69" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="25.5">
+      <c r="A71" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="25.5">
+      <c r="A77" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="16"/>
+    </row>
+    <row r="90" spans="1:1" ht="30">
+      <c r="A90" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="30">
+      <c r="A93" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="31.5">
+      <c r="A112" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="16"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="16"/>
+    </row>
+    <row r="118" spans="1:1" ht="30">
+      <c r="A118" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="16"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="16"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="30">
+      <c r="A123" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="31.5">
+      <c r="A127" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="16"/>
+    </row>
+    <row r="134" spans="1:1" ht="30">
+      <c r="A134" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="16"/>
+    </row>
+    <row r="136" spans="1:1" ht="30">
+      <c r="A136" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="16"/>
+    </row>
+    <row r="138" spans="1:1" ht="30">
+      <c r="A138" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="63">
+      <c r="A142" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="16"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="45">
+      <c r="A147" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="30">
+      <c r="A148" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="16"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="45">
+      <c r="A151" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="16"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="16"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="16"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="16"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="45">
+      <c r="A158" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="16"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="60">
+      <c r="A161" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="31.5">
+      <c r="A165" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="16"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="16"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="16"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="16"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="16"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="16"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="16"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="16"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId3" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>180</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>181</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId3" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId5" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>178</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>179</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId5" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId6" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>176</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>177</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId6" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId8" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId9" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>172</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>173</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId9" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId10" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>170</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>171</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId10" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId11" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>168</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>169</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId11" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId12" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>166</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>167</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId12" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>